--- a/va_facility_data_2025-02-20/Cache Valley VA Clinic - Facility Data.xlsx"; filename*=UTF-8''Cache%20Valley%20VA%20Clinic%20-%20Facility%20Data.xlsx
+++ b/va_facility_data_2025-02-20/Cache Valley VA Clinic - Facility Data.xlsx"; filename*=UTF-8''Cache%20Valley%20VA%20Clinic%20-%20Facility%20Data.xlsx
@@ -2,9 +2,9 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <x:workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <x:sheets>
-    <x:sheet name="Wait Times" sheetId="1" r:id="Ra6b33271e5ab4adbafcfec2c039c4bf5"/>
-    <x:sheet name="Satisfaction with Care" sheetId="2" r:id="R74554c3610094730b3992ba01a3783a4"/>
-    <x:sheet name="Outpatient Score" sheetId="3" r:id="R041cba4892df4c77bcb0969943906c00"/>
+    <x:sheet name="Wait Times" sheetId="1" r:id="Rc9be9e5e875d401a944bdb299aeb19bc"/>
+    <x:sheet name="Satisfaction with Care" sheetId="2" r:id="R19d27923935449a68f848fce7f781663"/>
+    <x:sheet name="Outpatient Score" sheetId="3" r:id="Redf8ee15f8344ee78336df847c8c6a06"/>
   </x:sheets>
 </x:workbook>
 </file>
